--- a/RoyalBrothers/RoyalBrothers_Tests/TestData/Royal_InputData.xlsx
+++ b/RoyalBrothers/RoyalBrothers_Tests/TestData/Royal_InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET-MODULE2-SELENIUM-PROJECT\RoyalBrothers\RoyalBrothers_Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC75ED-C0E0-4CDD-88AF-AF1FC560E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C97796-71B0-46DF-AC9D-EF6C2138F858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1440" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search Vehicle" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>checkInDate</t>
   </si>
@@ -55,12 +55,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>6:00 AM</t>
-  </si>
-  <si>
-    <t>10:00 AM</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -89,6 +83,60 @@
   </si>
   <si>
     <t>sortBy</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Price, low to high</t>
+  </si>
+  <si>
+    <t>5:00 AM</t>
+  </si>
+  <si>
+    <t>1:30 PM</t>
+  </si>
+  <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>Price, high to low</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>shirin@gmail.com</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Karimpalayil</t>
+  </si>
+  <si>
+    <t>payyalakkavu</t>
+  </si>
+  <si>
+    <t>Vishnu</t>
+  </si>
+  <si>
+    <t>Shirin</t>
   </si>
 </sst>
 </file>
@@ -421,7 +469,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,22 +499,22 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -477,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>9895302408</v>
@@ -515,26 +563,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA42F59-28D6-43CF-BF77-12725DE41836}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{745A5C4B-FD52-473F-BFA4-A5660095FD3D}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{52D88CF8-F6A5-43D1-98F0-4549BABE7961}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RoyalBrothers/RoyalBrothers_Tests/TestData/Royal_InputData.xlsx
+++ b/RoyalBrothers/RoyalBrothers_Tests/TestData/Royal_InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDET-MODULE2-SELENIUM-PROJECT\RoyalBrothers\RoyalBrothers_Tests\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C97796-71B0-46DF-AC9D-EF6C2138F858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD758E4-1D0E-4CE8-BDDF-93CAB9D08149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1440" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search Vehicle" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>checkInDate</t>
   </si>
@@ -40,12 +40,6 @@
     <t>checkOutTime</t>
   </si>
   <si>
-    <t>30 Nov, 2023</t>
-  </si>
-  <si>
-    <t>30 Dec, 2023</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -91,52 +85,52 @@
     <t>Price, low to high</t>
   </si>
   <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>Price, high to low</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>shirin@gmail.com</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Karimpalayil</t>
+  </si>
+  <si>
+    <t>payyalakkavu</t>
+  </si>
+  <si>
+    <t>Vishnu</t>
+  </si>
+  <si>
+    <t>Shirin</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>5:00 AM</t>
-  </si>
-  <si>
-    <t>1:30 PM</t>
-  </si>
-  <si>
-    <t>Cochin</t>
-  </si>
-  <si>
-    <t>Jacket</t>
-  </si>
-  <si>
-    <t>Price, high to low</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>shirin@gmail.com</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Karimpalayil</t>
-  </si>
-  <si>
-    <t>payyalakkavu</t>
-  </si>
-  <si>
-    <t>Vishnu</t>
-  </si>
-  <si>
-    <t>Shirin</t>
   </si>
 </sst>
 </file>
@@ -468,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +478,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -499,51 +493,51 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>9895302408</v>
@@ -565,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA42F59-28D6-43CF-BF77-12725DE41836}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -576,80 +570,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
